--- a/data/trans_orig/POLIPATOLOGIA_2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA_2-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>182958</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>160772</v>
+        <v>159281</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>205209</v>
+        <v>205715</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3132081401614202</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2752277287238839</v>
+        <v>0.2726758012455496</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3513011132872824</v>
+        <v>0.352167162359655</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>397</v>
@@ -765,19 +765,19 @@
         <v>408137</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>377231</v>
+        <v>381089</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>438976</v>
+        <v>441839</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4425045136639527</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4089964646667072</v>
+        <v>0.4131792167309944</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4759412901509276</v>
+        <v>0.4790448219670653</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>586</v>
@@ -786,19 +786,19 @@
         <v>591094</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>549948</v>
+        <v>554206</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>628961</v>
+        <v>629258</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3923693381067593</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3650564977244802</v>
+        <v>0.3678826675615982</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4175054495056803</v>
+        <v>0.4177028166871524</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>401183</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>378932</v>
+        <v>378426</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>423369</v>
+        <v>424860</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6867918598385797</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6486988867127177</v>
+        <v>0.647832837640345</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7247722712761162</v>
+        <v>0.7273241987544508</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>488</v>
@@ -836,19 +836,19 @@
         <v>514196</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>483357</v>
+        <v>480494</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>545102</v>
+        <v>541244</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5574954863360473</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5240587098490725</v>
+        <v>0.5209551780329348</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5910035353332928</v>
+        <v>0.5868207832690058</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>873</v>
@@ -857,19 +857,19 @@
         <v>915380</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>877513</v>
+        <v>877216</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>956526</v>
+        <v>952268</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6076306618932407</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5824945504943196</v>
+        <v>0.5822971833128475</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6349435022755198</v>
+        <v>0.6321173324384018</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>214431</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>188796</v>
+        <v>189237</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>238008</v>
+        <v>241193</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1989352974680978</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1751526072663853</v>
+        <v>0.1755615980671749</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2208081398348822</v>
+        <v>0.2237630130671943</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>338</v>
@@ -982,19 +982,19 @@
         <v>351414</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>319399</v>
+        <v>319863</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>381207</v>
+        <v>382241</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3322943552470986</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3020211684714234</v>
+        <v>0.3024601111164113</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3604663027122199</v>
+        <v>0.3614440005026942</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>558</v>
@@ -1003,19 +1003,19 @@
         <v>565845</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>523690</v>
+        <v>528365</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>607956</v>
+        <v>614062</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2649792030131743</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.245238418163129</v>
+        <v>0.2474276076293849</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2846993336944834</v>
+        <v>0.2875586123186557</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>863463</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>839886</v>
+        <v>836701</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>889098</v>
+        <v>888657</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8010647025319022</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7791918601651178</v>
+        <v>0.7762369869328062</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8248473927336142</v>
+        <v>0.8244384019328251</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>690</v>
@@ -1053,19 +1053,19 @@
         <v>706124</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>676331</v>
+        <v>675297</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>738139</v>
+        <v>737675</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6677056447529014</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6395336972877802</v>
+        <v>0.6385559994973055</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6979788315285768</v>
+        <v>0.6975398888835885</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1525</v>
@@ -1074,19 +1074,19 @@
         <v>1569587</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1527476</v>
+        <v>1521370</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1611742</v>
+        <v>1607067</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7350207969868257</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7153006663055167</v>
+        <v>0.7124413876813447</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7547615818368711</v>
+        <v>0.7525723923706152</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>161553</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>139427</v>
+        <v>139904</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>184294</v>
+        <v>186835</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1440383100548456</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1243114985999977</v>
+        <v>0.1247372038902484</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1643145367558423</v>
+        <v>0.1665801657720886</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>249</v>
@@ -1199,19 +1199,19 @@
         <v>253274</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>228466</v>
+        <v>226215</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>280183</v>
+        <v>280994</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2548179950921637</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2298588268313609</v>
+        <v>0.227594625743091</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2818916906050035</v>
+        <v>0.2827072309901633</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>413</v>
@@ -1220,19 +1220,19 @@
         <v>414826</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>378296</v>
+        <v>375329</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>451225</v>
+        <v>450827</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1960858415920494</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1788180568022571</v>
+        <v>0.1774156645227906</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2132911443716931</v>
+        <v>0.2131031023876583</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>960041</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>937300</v>
+        <v>934759</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>982167</v>
+        <v>981690</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8559616899451544</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8356854632441578</v>
+        <v>0.8334198342279112</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8756885014000023</v>
+        <v>0.8752627961097516</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>733</v>
@@ -1270,19 +1270,19 @@
         <v>740666</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>713757</v>
+        <v>712946</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>765474</v>
+        <v>767725</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7451820049078363</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7181083093949965</v>
+        <v>0.7172927690098365</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7701411731686392</v>
+        <v>0.7724053742569088</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1672</v>
@@ -1291,19 +1291,19 @@
         <v>1700708</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1664309</v>
+        <v>1664707</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1737238</v>
+        <v>1740205</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8039141584079506</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7867088556283069</v>
+        <v>0.7868968976123416</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.821181943197743</v>
+        <v>0.8225843354772093</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>72366</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>56803</v>
+        <v>57730</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>89373</v>
+        <v>88939</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1618193587310316</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1270198711806057</v>
+        <v>0.1290922551084377</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1998493962342957</v>
+        <v>0.1988803672732419</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>92</v>
@@ -1416,19 +1416,19 @@
         <v>94252</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>78063</v>
+        <v>78269</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>111243</v>
+        <v>110243</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.276272037265357</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2288182673452056</v>
+        <v>0.2294218892398259</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3260759822655631</v>
+        <v>0.3231446190588442</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>164</v>
@@ -1437,19 +1437,19 @@
         <v>166618</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>145053</v>
+        <v>145343</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>188877</v>
+        <v>190238</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2113482198821332</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1839933489959793</v>
+        <v>0.1843617858685229</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2395832130389778</v>
+        <v>0.2413088035759152</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>374834</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>357827</v>
+        <v>358261</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>390397</v>
+        <v>389470</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8381806412689684</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8001506037657042</v>
+        <v>0.801119632726758</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8729801288193942</v>
+        <v>0.8709077448915623</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>247</v>
@@ -1487,19 +1487,19 @@
         <v>246906</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>229915</v>
+        <v>230915</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>263095</v>
+        <v>262889</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.723727962734643</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.673924017734437</v>
+        <v>0.6768553809411562</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7711817326547947</v>
+        <v>0.7705781107601741</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>611</v>
@@ -1508,19 +1508,19 @@
         <v>621740</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>599481</v>
+        <v>598120</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>643305</v>
+        <v>643015</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7886517801178669</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7604167869610218</v>
+        <v>0.7586911964240847</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8160066510040207</v>
+        <v>0.815638214131477</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>631307</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>588654</v>
+        <v>588446</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>674352</v>
+        <v>676214</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1954009453595045</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.18219892994538</v>
+        <v>0.1821347791228526</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2087241141835325</v>
+        <v>0.2093005798449855</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1076</v>
@@ -1633,19 +1633,19 @@
         <v>1107077</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1051651</v>
+        <v>1049418</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1160993</v>
+        <v>1156458</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3339629018956515</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3172430526022817</v>
+        <v>0.3165693551883645</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3502272746853227</v>
+        <v>0.3488592545745535</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1721</v>
@@ -1654,19 +1654,19 @@
         <v>1738384</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1664372</v>
+        <v>1670916</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1808193</v>
+        <v>1813518</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2655724595913752</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2542656953237507</v>
+        <v>0.2552654665574178</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2762372886184307</v>
+        <v>0.277050747057531</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2599522</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2556477</v>
+        <v>2554615</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2642175</v>
+        <v>2642383</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8045990546404955</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7912758858164675</v>
+        <v>0.7906994201550144</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8178010700546201</v>
+        <v>0.8178652208771471</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2158</v>
@@ -1704,19 +1704,19 @@
         <v>2207892</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2153976</v>
+        <v>2158511</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2263318</v>
+        <v>2265551</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6660370981043484</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6497727253146778</v>
+        <v>0.6511407454254465</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6827569473977184</v>
+        <v>0.6834306448116355</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4681</v>
@@ -1725,19 +1725,19 @@
         <v>4807414</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4737605</v>
+        <v>4732280</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4881426</v>
+        <v>4874882</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7344275404086248</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7237627113815697</v>
+        <v>0.7229492529424691</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7457343046762496</v>
+        <v>0.7447345334425823</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>247412</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>219172</v>
+        <v>221065</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>275949</v>
+        <v>275327</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2369995192376946</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2099478838524044</v>
+        <v>0.2117609841826222</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2643357804660626</v>
+        <v>0.2637393959769558</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>451</v>
@@ -2090,19 +2090,19 @@
         <v>486444</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>453872</v>
+        <v>452013</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>521891</v>
+        <v>521513</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.434353028222974</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4052684725354039</v>
+        <v>0.4036085570110636</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4660044472778896</v>
+        <v>0.46566619125437</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>674</v>
@@ -2111,19 +2111,19 @@
         <v>733856</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>691668</v>
+        <v>685104</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>782712</v>
+        <v>778970</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.339141741378509</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3196450058542271</v>
+        <v>0.3166114244427484</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3617196119491422</v>
+        <v>0.3599905274587474</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>796523</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>767986</v>
+        <v>768608</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>824763</v>
+        <v>822870</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7630004807623054</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7356642195339373</v>
+        <v>0.7362606040230443</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7900521161475956</v>
+        <v>0.7882390158173778</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>580</v>
@@ -2161,19 +2161,19 @@
         <v>633484</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>598037</v>
+        <v>598415</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>666056</v>
+        <v>667915</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5656469717770259</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5339955527221103</v>
+        <v>0.5343338087456302</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.594731527464596</v>
+        <v>0.5963914429889363</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1335</v>
@@ -2182,19 +2182,19 @@
         <v>1430007</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1381151</v>
+        <v>1384893</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1472195</v>
+        <v>1478759</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6608582586214909</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.638280388050858</v>
+        <v>0.6400094725412525</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6803549941457729</v>
+        <v>0.6833885755572513</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>244136</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>214570</v>
+        <v>216665</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>272469</v>
+        <v>271614</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2498643577707848</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.219604453479251</v>
+        <v>0.2217492619396469</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2788627521876342</v>
+        <v>0.2779876529074563</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>393</v>
@@ -2307,19 +2307,19 @@
         <v>418452</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>385244</v>
+        <v>388269</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>455007</v>
+        <v>450780</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.382406120784317</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3520578358620413</v>
+        <v>0.3548227689821435</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4158120106902428</v>
+        <v>0.4119485265000249</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>619</v>
@@ -2328,19 +2328,19 @@
         <v>662588</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>614977</v>
+        <v>620245</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>704907</v>
+        <v>706350</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3198846294900068</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2968987269483144</v>
+        <v>0.2994423594574914</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.340315371669861</v>
+        <v>0.3410117529090804</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>732937</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>704604</v>
+        <v>705459</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>762503</v>
+        <v>760408</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7501356422292151</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7211372478123658</v>
+        <v>0.7220123470925438</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7803955465207493</v>
+        <v>0.7782507380603531</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>627</v>
@@ -2378,19 +2378,19 @@
         <v>675810</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>639255</v>
+        <v>643482</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>709018</v>
+        <v>705993</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.617593879215683</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5841879893097571</v>
+        <v>0.5880514734999751</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6479421641379587</v>
+        <v>0.6451772310178565</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1325</v>
@@ -2399,19 +2399,19 @@
         <v>1408747</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1366428</v>
+        <v>1364985</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1456358</v>
+        <v>1451090</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6801153705099932</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.659684628330139</v>
+        <v>0.6589882470909195</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7031012730516856</v>
+        <v>0.7005576405425085</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>240107</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>211788</v>
+        <v>215489</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>266711</v>
+        <v>269234</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2712716083012608</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2392779467121632</v>
+        <v>0.2434583885412993</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3013294546438431</v>
+        <v>0.3041799222884465</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>298</v>
@@ -2524,19 +2524,19 @@
         <v>320022</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>289747</v>
+        <v>291325</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>346707</v>
+        <v>346861</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3654072750984991</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3308381041813908</v>
+        <v>0.3326406815248232</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.395876147479562</v>
+        <v>0.396052286070071</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>520</v>
@@ -2545,19 +2545,19 @@
         <v>560129</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>521341</v>
+        <v>521612</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>598940</v>
+        <v>602726</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3180903430711963</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2960632689616718</v>
+        <v>0.2962172677262597</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3401309947758197</v>
+        <v>0.3422808524555341</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>645008</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>618404</v>
+        <v>615881</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>673327</v>
+        <v>669626</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7287283916987392</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6986705453561569</v>
+        <v>0.6958200777115535</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7607220532878368</v>
+        <v>0.7565416114587007</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>523</v>
@@ -2595,19 +2595,19 @@
         <v>555774</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>529089</v>
+        <v>528935</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>586049</v>
+        <v>584471</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6345927249015009</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6041238525204381</v>
+        <v>0.603947713929929</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6691618958186094</v>
+        <v>0.667359318475177</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1131</v>
@@ -2616,19 +2616,19 @@
         <v>1200782</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1161971</v>
+        <v>1158185</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1239570</v>
+        <v>1239299</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6819096569288038</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6598690052241802</v>
+        <v>0.6577191475444658</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7039367310383281</v>
+        <v>0.7037827322737401</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>97026</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>79756</v>
+        <v>79993</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>117247</v>
+        <v>117531</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1928854180039677</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1585536770549968</v>
+        <v>0.159023847136925</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2330841505734839</v>
+        <v>0.2336499547742775</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>129</v>
@@ -2741,19 +2741,19 @@
         <v>143161</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>121711</v>
+        <v>123919</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>163794</v>
+        <v>165255</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3162129124291393</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2688346439830464</v>
+        <v>0.2737107523813984</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3617872380889283</v>
+        <v>0.3650143199985242</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>215</v>
@@ -2762,19 +2762,19 @@
         <v>240187</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>213015</v>
+        <v>213707</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>266650</v>
+        <v>270180</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2513047363273915</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2228750992107727</v>
+        <v>0.2235994733466267</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2789935203391907</v>
+        <v>0.2826869687278335</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>405997</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>385776</v>
+        <v>385492</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>423267</v>
+        <v>423030</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8071145819960323</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7669158494265162</v>
+        <v>0.7663500452257217</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8414463229450033</v>
+        <v>0.8409761528630747</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>283</v>
@@ -2812,19 +2812,19 @@
         <v>309575</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>288942</v>
+        <v>287481</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>331025</v>
+        <v>328817</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6837870875708607</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6382127619110718</v>
+        <v>0.6349856800014759</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7311653560169536</v>
+        <v>0.7262892476186017</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>658</v>
@@ -2833,19 +2833,19 @@
         <v>715571</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>689108</v>
+        <v>685578</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>742743</v>
+        <v>742051</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7486952636726085</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7210064796608092</v>
+        <v>0.7173130312721665</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7771249007892274</v>
+        <v>0.7764005266533732</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>828680</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>779471</v>
+        <v>776566</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>886185</v>
+        <v>880705</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2430755993369614</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2286412128762867</v>
+        <v>0.227788997307444</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.259943422220456</v>
+        <v>0.2583359244008409</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1271</v>
@@ -2958,19 +2958,19 @@
         <v>1368080</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1309676</v>
+        <v>1312700</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1426775</v>
+        <v>1436447</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3861663021978456</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3696808269264252</v>
+        <v>0.3705342098876214</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4027341439973675</v>
+        <v>0.4054641977585334</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2028</v>
@@ -2979,19 +2979,19 @@
         <v>2196760</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2120997</v>
+        <v>2120900</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2281516</v>
+        <v>2275966</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.315995657818746</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3050974074132524</v>
+        <v>0.30508346586951</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3281875255010321</v>
+        <v>0.3273891994409683</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2580465</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2522960</v>
+        <v>2528440</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2629674</v>
+        <v>2632579</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7569244006630387</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.740056577779544</v>
+        <v>0.741664075599159</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7713587871237132</v>
+        <v>0.772211002692556</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2013</v>
@@ -3029,19 +3029,19 @@
         <v>2174642</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2115947</v>
+        <v>2106275</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2233046</v>
+        <v>2230022</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6138336978021544</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5972658560026326</v>
+        <v>0.5945358022414666</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6303191730735749</v>
+        <v>0.6294657901123787</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4449</v>
@@ -3050,19 +3050,19 @@
         <v>4755107</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4670351</v>
+        <v>4675901</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4830870</v>
+        <v>4830967</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6840043421812541</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.671812474498968</v>
+        <v>0.6726108005590318</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6949025925867476</v>
+        <v>0.69491653413049</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>288242</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>258236</v>
+        <v>262831</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>319665</v>
+        <v>319963</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2555342264045434</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2289328982177743</v>
+        <v>0.2330070816375944</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2833914974489813</v>
+        <v>0.2836562886010424</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>476</v>
@@ -3415,19 +3415,19 @@
         <v>531978</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>497045</v>
+        <v>495277</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>569813</v>
+        <v>570900</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4223515193963539</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.394617936408122</v>
+        <v>0.3932139859856601</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4523898583602203</v>
+        <v>0.4532534213977133</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>757</v>
@@ -3436,19 +3436,19 @@
         <v>820219</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>774852</v>
+        <v>772895</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>867264</v>
+        <v>864014</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3435390070172316</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3245375852435018</v>
+        <v>0.3237176029471932</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3632430592408638</v>
+        <v>0.3618820164508624</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>839755</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>808332</v>
+        <v>808034</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>869761</v>
+        <v>865166</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7444657735954566</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7166085025510187</v>
+        <v>0.7163437113989576</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7710671017822257</v>
+        <v>0.7669929183624056</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>712</v>
@@ -3486,19 +3486,19 @@
         <v>727583</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>689748</v>
+        <v>688661</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>762516</v>
+        <v>764284</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.577648480603646</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5476101416397796</v>
+        <v>0.5467465786022868</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.605382063591878</v>
+        <v>0.6067860140143403</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1497</v>
@@ -3507,19 +3507,19 @@
         <v>1567339</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1520294</v>
+        <v>1523544</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1612706</v>
+        <v>1614663</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6564609929827684</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6367569407591359</v>
+        <v>0.6381179835491375</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6754624147564977</v>
+        <v>0.6762823970528067</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>216740</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>192574</v>
+        <v>192535</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>242613</v>
+        <v>243752</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2384842741339917</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2118937476685535</v>
+        <v>0.211850132014969</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2669523033111839</v>
+        <v>0.2682056272653636</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>309</v>
@@ -3632,19 +3632,19 @@
         <v>343887</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>312866</v>
+        <v>315498</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>375977</v>
+        <v>374848</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3416751077415529</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3108534688896187</v>
+        <v>0.3134682051156745</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3735586319429501</v>
+        <v>0.3724367777003406</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>529</v>
@@ -3653,19 +3653,19 @@
         <v>560628</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>519901</v>
+        <v>520463</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>601053</v>
+        <v>600532</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2927102548003667</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2714460492502484</v>
+        <v>0.2717398815755969</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3138165481593345</v>
+        <v>0.3135447310955307</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>692085</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>666212</v>
+        <v>665073</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>716251</v>
+        <v>716290</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7615157258660084</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.733047696688816</v>
+        <v>0.7317943727346362</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7881062523314464</v>
+        <v>0.7881498679850309</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>642</v>
@@ -3703,19 +3703,19 @@
         <v>662588</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>630498</v>
+        <v>631627</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>693609</v>
+        <v>690977</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6583248922584471</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.62644136805705</v>
+        <v>0.6275632222996594</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6891465311103814</v>
+        <v>0.6865317948843256</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1303</v>
@@ -3724,19 +3724,19 @@
         <v>1354672</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1314247</v>
+        <v>1314768</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1395399</v>
+        <v>1394837</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7072897451996333</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6861834518406659</v>
+        <v>0.6864552689044695</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7285539507497518</v>
+        <v>0.7282601184244032</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>185032</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>162861</v>
+        <v>160864</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>207861</v>
+        <v>211382</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.224619062661132</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1977051326386983</v>
+        <v>0.1952803942228245</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.252331824805285</v>
+        <v>0.2566062858940595</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>217</v>
@@ -3849,19 +3849,19 @@
         <v>248121</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>222961</v>
+        <v>222602</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>277848</v>
+        <v>278268</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3217920232359726</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2891617642161728</v>
+        <v>0.2886963203140346</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3603458493862339</v>
+        <v>0.3608902670055096</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>399</v>
@@ -3870,19 +3870,19 @@
         <v>433153</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>397852</v>
+        <v>396488</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>470626</v>
+        <v>468651</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2716000076954591</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2494656071573552</v>
+        <v>0.2486100636075708</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2950968031758594</v>
+        <v>0.2938583162015006</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>638727</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>615898</v>
+        <v>612377</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>660898</v>
+        <v>662895</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7753809373388679</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.747668175194715</v>
+        <v>0.7433937141059406</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8022948673613017</v>
+        <v>0.8047196057771756</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>511</v>
@@ -3920,19 +3920,19 @@
         <v>522938</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>493211</v>
+        <v>492791</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>548098</v>
+        <v>548457</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6782079767640273</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6396541506137658</v>
+        <v>0.6391097329944905</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7108382357838272</v>
+        <v>0.7113036796859653</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1116</v>
@@ -3941,19 +3941,19 @@
         <v>1161665</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1124192</v>
+        <v>1126167</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1196966</v>
+        <v>1198330</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7283999923045409</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7049031968241405</v>
+        <v>0.7061416837984995</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7505343928426447</v>
+        <v>0.7513899363924292</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>112779</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>95626</v>
+        <v>94714</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>134968</v>
+        <v>132227</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2225755987817158</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1887228954816442</v>
+        <v>0.1869221364191394</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2663662169158248</v>
+        <v>0.2609564777344203</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>128</v>
@@ -4066,19 +4066,19 @@
         <v>147507</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>126422</v>
+        <v>127296</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>169400</v>
+        <v>168568</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3012213547123378</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2581633025249281</v>
+        <v>0.2599487597895302</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3459282491193396</v>
+        <v>0.3442294837883786</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>235</v>
@@ -4087,19 +4087,19 @@
         <v>260286</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>231164</v>
+        <v>232942</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>287413</v>
+        <v>290330</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.261227439340854</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2319996486763921</v>
+        <v>0.2337837290262648</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2884522224074152</v>
+        <v>0.2913798848994402</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>393922</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>371733</v>
+        <v>374474</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>411075</v>
+        <v>411987</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7774244012182842</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7336337830841753</v>
+        <v>0.7390435222655797</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8112771045183558</v>
+        <v>0.8130778635808605</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>327</v>
@@ -4137,19 +4137,19 @@
         <v>342191</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>320298</v>
+        <v>321130</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>363276</v>
+        <v>362402</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6987786452876622</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6540717508806602</v>
+        <v>0.6557705162116214</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7418366974750719</v>
+        <v>0.7400512402104698</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>691</v>
@@ -4158,19 +4158,19 @@
         <v>736112</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>708985</v>
+        <v>706068</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>765234</v>
+        <v>763456</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.738772560659146</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7115477775925847</v>
+        <v>0.7086201151005599</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7680003513236079</v>
+        <v>0.7662162709737351</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>802794</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>755829</v>
+        <v>754574</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>852010</v>
+        <v>852014</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2384099591925549</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2244624934781711</v>
+        <v>0.2240899190382053</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2530260768144916</v>
+        <v>0.2530271984995691</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1130</v>
@@ -4283,19 +4283,19 @@
         <v>1271493</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1217960</v>
+        <v>1212828</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1333308</v>
+        <v>1328446</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3605238812959262</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3453451386398556</v>
+        <v>0.3438897810581883</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3780512658713941</v>
+        <v>0.3766727058535411</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1920</v>
@@ -4304,19 +4304,19 @@
         <v>2074287</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1995321</v>
+        <v>1994600</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2155067</v>
+        <v>2151590</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3008796119850609</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2894255105610896</v>
+        <v>0.2893209439113383</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3125969159027374</v>
+        <v>0.3120926221282604</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2564488</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2515272</v>
+        <v>2515268</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2611453</v>
+        <v>2612708</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7615900408074451</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7469739231855083</v>
+        <v>0.7469728015004308</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7755375065218288</v>
+        <v>0.7759100809617943</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2192</v>
@@ -4354,19 +4354,19 @@
         <v>2255299</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2193484</v>
+        <v>2198346</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2308832</v>
+        <v>2313964</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6394761187040737</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6219487341286059</v>
+        <v>0.623327294146459</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6546548613601444</v>
+        <v>0.6561102189418117</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4607</v>
@@ -4375,19 +4375,19 @@
         <v>4819788</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4739008</v>
+        <v>4742485</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4898754</v>
+        <v>4899475</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6991203880149391</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6874030840972626</v>
+        <v>0.6879073778717395</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7105744894389104</v>
+        <v>0.7106790560886617</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>195618</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>173483</v>
+        <v>171020</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>219699</v>
+        <v>220089</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3922258563167071</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3478426697169301</v>
+        <v>0.3429038437382796</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4405098898718258</v>
+        <v>0.4412915565910498</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>521</v>
@@ -4740,19 +4740,19 @@
         <v>334495</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>311265</v>
+        <v>308428</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>357990</v>
+        <v>353856</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5364111142537575</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4991579370283115</v>
+        <v>0.4946087841241433</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5740876134239405</v>
+        <v>0.5674589101593052</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>733</v>
@@ -4761,19 +4761,19 @@
         <v>530114</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>494974</v>
+        <v>499163</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>560777</v>
+        <v>564163</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4723376900577198</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4410271859257689</v>
+        <v>0.4447599782861705</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4996591577664278</v>
+        <v>0.5026758277411739</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>303121</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>279040</v>
+        <v>278650</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>325256</v>
+        <v>327719</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6077741436832929</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5594901101281743</v>
+        <v>0.5587084434089502</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6521573302830698</v>
+        <v>0.6570961562617205</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>340</v>
@@ -4811,19 +4811,19 @@
         <v>289085</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>265590</v>
+        <v>269724</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>312315</v>
+        <v>315152</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4635888857462423</v>
+        <v>0.4635888857462424</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4259123865760608</v>
+        <v>0.4325410898406949</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5008420629716887</v>
+        <v>0.5053912158758566</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>583</v>
@@ -4832,19 +4832,19 @@
         <v>592206</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>561543</v>
+        <v>558157</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>627346</v>
+        <v>623157</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5276623099422802</v>
+        <v>0.5276623099422804</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5003408422335721</v>
+        <v>0.4973241722588259</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5589728140742311</v>
+        <v>0.5552400217138296</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>296495</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>265334</v>
+        <v>266141</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>324128</v>
+        <v>326429</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3088045624567666</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2763502620734277</v>
+        <v>0.2771910203496109</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3375856678221968</v>
+        <v>0.3399821722092908</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>827</v>
@@ -4957,19 +4957,19 @@
         <v>501054</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>473867</v>
+        <v>471648</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>532549</v>
+        <v>529778</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4490339581782761</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4246690261890728</v>
+        <v>0.4226810821573287</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4772586856111719</v>
+        <v>0.4747761464098824</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1189</v>
@@ -4978,19 +4978,19 @@
         <v>797549</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>753245</v>
+        <v>753832</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>838365</v>
+        <v>838149</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3841783248430017</v>
+        <v>0.3841783248430016</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3628371886860378</v>
+        <v>0.3631200513038094</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4038396415618322</v>
+        <v>0.403735593616495</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>663642</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>636009</v>
+        <v>633708</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>694803</v>
+        <v>693996</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6911954375432334</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6624143321778033</v>
+        <v>0.6600178277907092</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7236497379265724</v>
+        <v>0.7228089796503893</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>780</v>
@@ -5028,19 +5028,19 @@
         <v>614795</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>583300</v>
+        <v>586071</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>641982</v>
+        <v>644201</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5509660418217238</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5227413143888284</v>
+        <v>0.5252238535901177</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5753309738109272</v>
+        <v>0.5773189178426713</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1328</v>
@@ -5049,19 +5049,19 @@
         <v>1278437</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1237621</v>
+        <v>1237837</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1322741</v>
+        <v>1322154</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6158216751569984</v>
+        <v>0.6158216751569983</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5961603584381677</v>
+        <v>0.5962644063835049</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6371628113139622</v>
+        <v>0.6368799486961906</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>299967</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>272345</v>
+        <v>272638</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>329026</v>
+        <v>331092</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2866440498975227</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2602492675769822</v>
+        <v>0.2605290707408704</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3144128135095956</v>
+        <v>0.3163864455010081</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>720</v>
@@ -5174,19 +5174,19 @@
         <v>446647</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>420005</v>
+        <v>420253</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>474959</v>
+        <v>475890</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4263359162863483</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4009053705793475</v>
+        <v>0.4011418464371292</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4533598994402692</v>
+        <v>0.4542491035487332</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1090</v>
@@ -5195,19 +5195,19 @@
         <v>746614</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>705312</v>
+        <v>705686</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>789311</v>
+        <v>788099</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.356528751592824</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.336805700414299</v>
+        <v>0.3369841316868054</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3769173626933522</v>
+        <v>0.3763387487915413</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>746512</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>717453</v>
+        <v>715387</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>774134</v>
+        <v>773841</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7133559501024773</v>
+        <v>0.7133559501024772</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6855871864904043</v>
+        <v>0.6836135544989921</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7397507324230177</v>
+        <v>0.7394709292591296</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>796</v>
@@ -5245,19 +5245,19 @@
         <v>600995</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>572683</v>
+        <v>571752</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>627637</v>
+        <v>627389</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.5736640837136516</v>
+        <v>0.5736640837136517</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5466401005597308</v>
+        <v>0.5457508964512667</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5990946294206525</v>
+        <v>0.5988581535628708</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1455</v>
@@ -5266,19 +5266,19 @@
         <v>1347507</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1304810</v>
+        <v>1306022</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1388809</v>
+        <v>1388435</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.643471248407176</v>
+        <v>0.6434712484071761</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6230826373066476</v>
+        <v>0.6236612512084587</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6631942995857009</v>
+        <v>0.6630158683131946</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>331732</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>297547</v>
+        <v>300042</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>363327</v>
+        <v>366509</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3399141304813509</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3048861625413085</v>
+        <v>0.3074419824801538</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3722880299349682</v>
+        <v>0.3755493242308678</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>674</v>
@@ -5391,19 +5391,19 @@
         <v>424329</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>398881</v>
+        <v>399029</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>455573</v>
+        <v>452218</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4661188765056755</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4381643690311657</v>
+        <v>0.4383270093850757</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5004403067583932</v>
+        <v>0.4967549205516886</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1042</v>
@@ -5412,19 +5412,19 @@
         <v>756061</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>716314</v>
+        <v>712988</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>800797</v>
+        <v>794984</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.4008224858706133</v>
+        <v>0.4008224858706132</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.37975101409169</v>
+        <v>0.3779875878050495</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4245388908439485</v>
+        <v>0.4214570727800619</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>644197</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>612602</v>
+        <v>609420</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>678382</v>
+        <v>675887</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6600858695186492</v>
+        <v>0.6600858695186491</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6277119700650319</v>
+        <v>0.6244506757691323</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6951138374586915</v>
+        <v>0.6925580175198461</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>650</v>
@@ -5462,19 +5462,19 @@
         <v>486016</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>454772</v>
+        <v>458127</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>511464</v>
+        <v>511316</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5338811234943245</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4995596932416067</v>
+        <v>0.5032450794483115</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5618356309688343</v>
+        <v>0.5616729906149245</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1229</v>
@@ -5483,19 +5483,19 @@
         <v>1130213</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1085477</v>
+        <v>1091290</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1169960</v>
+        <v>1173286</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5991775141293869</v>
+        <v>0.5991775141293868</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5754611091560513</v>
+        <v>0.5785429272199382</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6202489859083099</v>
+        <v>0.6220124121949504</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>1123812</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1068902</v>
+        <v>1073520</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1182803</v>
+        <v>1189994</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3228153969204074</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.307042389998586</v>
+        <v>0.3083689957362891</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3397605132823075</v>
+        <v>0.3418262849529465</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2742</v>
@@ -5608,19 +5608,19 @@
         <v>1706526</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1647049</v>
+        <v>1649783</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1757630</v>
+        <v>1755787</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4615455138305239</v>
+        <v>0.461545513830524</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4454595415337442</v>
+        <v>0.4461988621226631</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4753671943487068</v>
+        <v>0.4748687158397132</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4054</v>
@@ -5629,19 +5629,19 @@
         <v>2830338</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2742783</v>
+        <v>2750170</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2902815</v>
+        <v>2918682</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3942688542228738</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3820722943827145</v>
+        <v>0.3831013457916882</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4043649200263709</v>
+        <v>0.4065752965212813</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2357472</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2298481</v>
+        <v>2291290</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2412382</v>
+        <v>2407764</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6771846030795926</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6602394867176927</v>
+        <v>0.6581737150470526</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.692957610001414</v>
+        <v>0.6916310042637105</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2566</v>
@@ -5679,19 +5679,19 @@
         <v>1990890</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1939786</v>
+        <v>1941629</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2050367</v>
+        <v>2047633</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.538454486169476</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5246328056512932</v>
+        <v>0.5251312841602865</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5545404584662557</v>
+        <v>0.5538011378773365</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4595</v>
@@ -5700,19 +5700,19 @@
         <v>4348363</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4275886</v>
+        <v>4260019</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4435918</v>
+        <v>4428531</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6057311457771263</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5956350799736292</v>
+        <v>0.5934247034787188</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6179277056172856</v>
+        <v>0.6168986542083117</v>
       </c>
     </row>
     <row r="18">
